--- a/permit/doc/市场科预售证表头.xlsx
+++ b/permit/doc/市场科预售证表头.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="375" windowWidth="19440" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="75" yWindow="405" windowWidth="19440" windowHeight="15570" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,125 +19,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+  <si>
+    <t>开发资质证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>项目座落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋栋号及层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证时各栋已建层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋占用土地是否抵押</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>绿地未来商业中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目座落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>禅城区玉带路16号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>佛山铂晟置业有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发资质证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粤佛房开证字第1301181号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>佛禅国用（2015）第1101967号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>土地用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋栋号及层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证时各栋已建层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋占用土地是否抵押</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二О一六 年 四 月 二十六 日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,13 +212,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,116 +559,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U3"/>
+  <dimension ref="A2:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="27.875" customWidth="1"/>
-    <col min="7" max="7" width="55.5" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.125" customWidth="1"/>
     <col min="14" max="14" width="20.875" customWidth="1"/>
     <col min="15" max="15" width="16.5" customWidth="1"/>
-    <col min="16" max="16" width="22.5" customWidth="1"/>
+    <col min="16" max="16" width="31.125" customWidth="1"/>
+    <col min="17" max="17" width="39.875" customWidth="1"/>
+    <col min="18" max="18" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:20" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>2016003701</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="1">
         <v>40527.699999999997</v>
@@ -695,21 +695,20 @@
       <c r="O3" s="1">
         <v>100</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="1"/>
+      <c r="P3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="S3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
